--- a/cards_repo.xlsx
+++ b/cards_repo.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">2020-34-13 -2020-34-20 </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">2020-16-13 -2020-16-20 </t>
   </si>
   <si>
     <t>Laborie</t>
@@ -38,7 +38,25 @@
     <t>Hospitality Wkrs</t>
   </si>
   <si>
+    <t>Balance inquiry</t>
+  </si>
+  <si>
+    <t>Cards Active</t>
+  </si>
+  <si>
     <t>Cards Issued</t>
+  </si>
+  <si>
+    <t>Cards withdrawal Rev</t>
+  </si>
+  <si>
+    <t>Cash withdrawal</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>Funds Transfer</t>
   </si>
 </sst>
 </file>
@@ -46,13 +64,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -120,28 +144,181 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C2" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>72.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="F2" t="n">
         <v>10.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
